--- a/Project-Plan-Template.xlsx
+++ b/Project-Plan-Template.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B385C28-ACBA-4926-8AA1-37BA1CEE551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="LOV" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Q4-2022" sheetId="1" r:id="rId2"/>
+    <sheet name="Q1-2023" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Week</t>
   </si>
@@ -23,20 +34,137 @@
   </si>
   <si>
     <t>Importance (Must Have/Nice to Have)</t>
+  </si>
+  <si>
+    <t>Setup GitHub Repo</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Must Have</t>
+  </si>
+  <si>
+    <t>Nice to Have</t>
+  </si>
+  <si>
+    <t>Continuous Delivery</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>Key Deliverables</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Integration Tests</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>KW41</t>
+  </si>
+  <si>
+    <t>KW42</t>
+  </si>
+  <si>
+    <t>KW43</t>
+  </si>
+  <si>
+    <t>KW44</t>
+  </si>
+  <si>
+    <t>KW45</t>
+  </si>
+  <si>
+    <t>KW46</t>
+  </si>
+  <si>
+    <t>KW47</t>
+  </si>
+  <si>
+    <t>KW48</t>
+  </si>
+  <si>
+    <t>KW49</t>
+  </si>
+  <si>
+    <t>KW50</t>
+  </si>
+  <si>
+    <t>KW51</t>
+  </si>
+  <si>
+    <t>KW52</t>
+  </si>
+  <si>
+    <t>KW01</t>
+  </si>
+  <si>
+    <t>KW02</t>
+  </si>
+  <si>
+    <t>KW03</t>
+  </si>
+  <si>
+    <t>KW04</t>
+  </si>
+  <si>
+    <t>KW05</t>
+  </si>
+  <si>
+    <t>KW06</t>
+  </si>
+  <si>
+    <t>KW07</t>
+  </si>
+  <si>
+    <t>KW08</t>
+  </si>
+  <si>
+    <t>KW09</t>
+  </si>
+  <si>
+    <t>KW10</t>
+  </si>
+  <si>
+    <t>KW11</t>
+  </si>
+  <si>
+    <t>KW12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -44,7 +172,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -53,8 +181,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -68,33 +202,57 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -284,26 +442,91 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701AC166-8B91-449B-9A04-CDDE3AE50282}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{444F80AC-12EB-4C81-B1CE-E889570BF5E3}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>"""Must have"""," ""Nice to have"""</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"""Must have"", ""Nice to have"""</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.57"/>
-    <col customWidth="1" min="2" max="2" width="32.29"/>
-    <col customWidth="1" min="3" max="3" width="31.0"/>
-    <col customWidth="1" min="4" max="4" width="36.0"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -339,7 +562,297 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6BDA41F-16EC-498E-9D26-CA618AC362CC}">
+          <x14:formula1>
+            <xm:f>LOV!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1 D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{30247142-A818-4D99-B475-FD3DA4709186}">
+          <x14:formula1>
+            <xm:f>LOV!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1 C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F95FA24-775E-48CA-AD32-A8D6CB1BA02B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2E2776B-83C8-45B6-883C-FE52E7BC424F}">
+          <x14:formula1>
+            <xm:f>LOV!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69E77FD9-89E1-4854-8806-C9D1F165F9C7}">
+          <x14:formula1>
+            <xm:f>LOV!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>